--- a/documents/backlog/ProductBacklog.xlsx
+++ b/documents/backlog/ProductBacklog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="0" windowWidth="18840" windowHeight="8340"/>
+    <workbookView xWindow="6600" yWindow="0" windowWidth="18840" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Save score</t>
   </si>
@@ -32,118 +32,130 @@
     <t>Update score</t>
   </si>
   <si>
+    <t>View statistics</t>
+  </si>
+  <si>
+    <t>Start game</t>
+  </si>
+  <si>
+    <t>Add player to game</t>
+  </si>
+  <si>
+    <t>Restart game</t>
+  </si>
+  <si>
+    <t>Add nice artwork</t>
+  </si>
+  <si>
+    <t>Rule logic in response to rolls</t>
+  </si>
+  <si>
+    <t>Player management GUI</t>
+  </si>
+  <si>
+    <t>Game GUI</t>
+  </si>
+  <si>
+    <t>Player Stats GUI</t>
+  </si>
+  <si>
+    <t>End game GUI</t>
+  </si>
+  <si>
+    <t>Roll 3 dice</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Planned</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Feature name</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Create a player</t>
+  </si>
+  <si>
+    <t>Delete player</t>
+  </si>
+  <si>
+    <t>Delete an existing player</t>
+  </si>
+  <si>
+    <t>Add a new player</t>
+  </si>
+  <si>
+    <t>Update the scores/stats (like after a game)</t>
+  </si>
+  <si>
+    <t>Save the persistent score/stats</t>
+  </si>
+  <si>
+    <t>View statistics about players/games</t>
+  </si>
+  <si>
+    <t>Add an existing player to a new game</t>
+  </si>
+  <si>
+    <t>Start a new game</t>
+  </si>
+  <si>
+    <t>Restart a game with the same players</t>
+  </si>
+  <si>
+    <t>Make the GUI look nice</t>
+  </si>
+  <si>
+    <t>Add core game logic that occurs after each roll (e.g. win, lose)</t>
+  </si>
+  <si>
+    <t>GUI displayed after a game is over</t>
+  </si>
+  <si>
+    <t>GUI that displays player/game stats</t>
+  </si>
+  <si>
+    <t>Main GUI during a game</t>
+  </si>
+  <si>
+    <t>Product Backlog</t>
+  </si>
+  <si>
+    <t>Dice Simulator 2016</t>
+  </si>
+  <si>
+    <t>GUI to choose players for a game</t>
+  </si>
+  <si>
+    <t>Rule GUI</t>
+  </si>
+  <si>
+    <t>GUI to display the game rules</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
     <t>User pass</t>
   </si>
   <si>
-    <t>View statistics</t>
-  </si>
-  <si>
-    <t>Start game</t>
-  </si>
-  <si>
-    <t>Add player to game</t>
-  </si>
-  <si>
-    <t>Restart game</t>
-  </si>
-  <si>
-    <t>Add nice artwork</t>
-  </si>
-  <si>
-    <t>Rule logic in response to rolls</t>
-  </si>
-  <si>
-    <t>Player management GUI</t>
-  </si>
-  <si>
-    <t>Game GUI</t>
-  </si>
-  <si>
-    <t>Player Stats GUI</t>
-  </si>
-  <si>
-    <t>End game GUI</t>
-  </si>
-  <si>
-    <t>Roll 3 dice</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>Planned</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Feature name</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Create a player</t>
-  </si>
-  <si>
-    <t>Delete player</t>
-  </si>
-  <si>
-    <t>Delete an existing player</t>
-  </si>
-  <si>
-    <t>Add a new player</t>
-  </si>
-  <si>
-    <t>Update the scores/stats (like after a game)</t>
-  </si>
-  <si>
-    <t>Save the persistent score/stats</t>
-  </si>
-  <si>
-    <t>View statistics about players/games</t>
-  </si>
-  <si>
-    <t>Add an existing player to a new game</t>
-  </si>
-  <si>
-    <t>Start a new game</t>
-  </si>
-  <si>
     <t>User can pass after they roll</t>
-  </si>
-  <si>
-    <t>Restart a game with the same players</t>
-  </si>
-  <si>
-    <t>Make the GUI look nice</t>
-  </si>
-  <si>
-    <t>Add core game logic that occurs after each roll (e.g. win, lose)</t>
-  </si>
-  <si>
-    <t>GUI to manage (add/delete) players</t>
-  </si>
-  <si>
-    <t>GUI displayed after a game is over</t>
-  </si>
-  <si>
-    <t>GUI that displays player/game stats</t>
-  </si>
-  <si>
-    <t>Main GUI during a game</t>
-  </si>
-  <si>
-    <t>Product Backlog</t>
-  </si>
-  <si>
-    <t>Dice Simulator 2016</t>
   </si>
 </sst>
 </file>
@@ -478,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,32 +504,32 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -525,19 +537,19 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -545,19 +557,19 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -568,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -577,7 +589,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -585,16 +597,16 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -605,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -614,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -622,10 +634,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -634,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -642,10 +654,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>20</v>
@@ -654,7 +666,7 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -662,19 +674,19 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -682,19 +694,16 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -702,10 +711,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>20</v>
@@ -714,7 +723,7 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -722,10 +731,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -734,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -742,19 +751,19 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D16">
         <v>20</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -762,10 +771,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D17">
         <v>40</v>
@@ -774,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -782,10 +791,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D18">
         <v>40</v>
@@ -794,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -802,19 +811,19 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>40</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -822,19 +831,39 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20">
         <v>40</v>
       </c>
       <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21">
+        <v>13</v>
+      </c>
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F20" t="s">
-        <v>35</v>
+      <c r="F21" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/documents/backlog/ProductBacklog.xlsx
+++ b/documents/backlog/ProductBacklog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="0" windowWidth="18840" windowHeight="8340"/>
+    <workbookView xWindow="8250" yWindow="0" windowWidth="18840" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,6 @@
     <t>Update score</t>
   </si>
   <si>
-    <t>View statistics</t>
-  </si>
-  <si>
     <t>Start game</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>Save the persistent score/stats</t>
   </si>
   <si>
-    <t>View statistics about players/games</t>
-  </si>
-  <si>
     <t>Add an existing player to a new game</t>
   </si>
   <si>
@@ -156,13 +150,19 @@
   </si>
   <si>
     <t>User can pass after they roll</t>
+  </si>
+  <si>
+    <t>Provide statistics to GUI</t>
+  </si>
+  <si>
+    <t>Provide statistics about players/games to the GUI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +180,14 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -206,10 +214,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,7 +502,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,32 +513,32 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -537,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -549,27 +558,24 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -580,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -589,7 +595,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -597,10 +603,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -617,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -626,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -634,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -646,7 +652,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -654,19 +660,19 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -674,10 +680,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12">
         <v>20</v>
@@ -686,35 +692,35 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
-        <v>42</v>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D14">
         <v>20</v>
@@ -723,7 +729,7 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -731,10 +737,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -743,7 +749,7 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -751,10 +757,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16">
         <v>20</v>
@@ -763,7 +769,7 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -771,10 +777,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17">
         <v>40</v>
@@ -783,7 +789,7 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -791,10 +797,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18">
         <v>40</v>
@@ -803,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -811,10 +817,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19">
         <v>40</v>
@@ -823,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -831,10 +837,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20">
         <v>40</v>
@@ -843,7 +849,7 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -851,10 +857,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21">
         <v>13</v>
@@ -863,7 +869,7 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/documents/backlog/ProductBacklog.xlsx
+++ b/documents/backlog/ProductBacklog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="0" windowWidth="18840" windowHeight="8340"/>
+    <workbookView xWindow="9900" yWindow="0" windowWidth="18840" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -501,9 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -549,7 +547,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -586,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -623,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -740,13 +738,13 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D15">
         <v>13</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>28</v>
@@ -836,17 +834,14 @@
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D20">
         <v>40</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
       </c>
       <c r="F20" t="s">
         <v>30</v>

--- a/documents/backlog/ProductBacklog.xlsx
+++ b/documents/backlog/ProductBacklog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="0" windowWidth="18840" windowHeight="8340"/>
+    <workbookView xWindow="11550" yWindow="0" windowWidth="18840" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>Save score</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Sprint</t>
-  </si>
-  <si>
-    <t>Planned</t>
   </si>
   <si>
     <t>Comments</t>
@@ -511,20 +508,20 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -536,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -544,10 +541,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -556,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -564,16 +561,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -584,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -593,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -604,7 +601,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -621,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -630,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -638,10 +635,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -650,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -661,7 +658,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11">
         <v>20</v>
@@ -670,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -681,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>20</v>
@@ -690,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -698,16 +695,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -718,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <v>20</v>
@@ -727,7 +724,7 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -738,7 +735,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -747,7 +744,7 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -758,7 +755,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16">
         <v>20</v>
@@ -767,7 +764,7 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -778,7 +775,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17">
         <v>40</v>
@@ -787,7 +784,7 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -798,7 +795,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18">
         <v>40</v>
@@ -807,7 +804,7 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -818,7 +815,7 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>40</v>
@@ -827,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -838,13 +835,13 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20">
         <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -852,10 +849,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21">
         <v>13</v>
@@ -864,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
